--- a/Documentatie/Analyse/Database.xlsx
+++ b/Documentatie/Analyse/Database.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -180,11 +180,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,6 +197,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -214,15 +226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -231,8 +243,152 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1504951" y="4752975"/>
-          <a:ext cx="866774" cy="476250"/>
+          <a:off x="1628775" y="1638300"/>
+          <a:ext cx="790575" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>319769</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Rechte verbindingslijn met pijl 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1626055" y="3204482"/>
+          <a:ext cx="1428749" cy="646339"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>306160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>102055</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34018</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Rechte verbindingslijn met pijl 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1612446" y="6252482"/>
+          <a:ext cx="2204359" cy="639536"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>326571</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61232</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Rechte verbindingslijn met pijl 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1632857" y="4728482"/>
+          <a:ext cx="1408339" cy="646339"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -547,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -565,52 +721,52 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="10"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -626,191 +782,197 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="4"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
@@ -823,118 +985,122 @@
       <c r="F18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="4"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="4"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="4"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="4"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="4"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="4"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
@@ -947,158 +1113,198 @@
       <c r="F26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3"/>
+      <c r="B29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="4"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="4"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="4"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="3"/>
+      <c r="B37" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="C38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
